--- a/Test-case/Тест-кейсы.xlsx
+++ b/Test-case/Тест-кейсы.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rusan\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B65EA932-2EBE-4B67-BD9F-268327655454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18B2273B-ADAC-4CAA-9134-983935C2CC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="213">
   <si>
     <t>Project</t>
   </si>
   <si>
-    <t>Data</t>
-  </si>
-  <si>
     <t>Enviroment</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
   </si>
   <si>
     <t>Александр Русанов</t>
-  </si>
-  <si>
-    <t>Windows 10, Microsoft Edge Версия 140.0.3485.94</t>
   </si>
   <si>
     <t>ТС001</t>
@@ -252,9 +246,6 @@
 2. На номер отправился код подтверждения</t>
   </si>
   <si>
-    <t>Авторизация с email больше максимума (50 символ)</t>
-  </si>
-  <si>
     <t>Авторизация с email из 1 символа</t>
   </si>
   <si>
@@ -754,6 +745,12 @@
   </si>
   <si>
     <t>Автоизация Яндекс ID</t>
+  </si>
+  <si>
+    <t>Windows 10 v.10.0.19045, Microsoft Edge v.140.0.3485.94</t>
+  </si>
+  <si>
+    <t>Авторизация с email больше допустимой длины (50 символ)</t>
   </si>
 </sst>
 </file>
@@ -822,42 +819,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1139,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:F56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1155,921 +1143,965 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="4"/>
       <c r="C1" s="2" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="13" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="2" t="s">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="3" t="s">
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="D5" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="5" t="s">
+      <c r="C18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B20" s="8" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="C24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="5"/>
+      <c r="D27" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="B31" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B32" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="5"/>
+      <c r="D33" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35" s="5"/>
+      <c r="D35" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A36" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C37" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="E37" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A38" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A39" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C39" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C40" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E40" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A41" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D42" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A43" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A44" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D44" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E44" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A45" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E45" s="8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="7" t="s">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A46" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A47" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C47" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="E47" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A48" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="E48" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A49" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E49" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A50" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A51" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E51" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A52" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A53" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D53" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="D11" s="7" t="s">
+      <c r="E53" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A54" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C54" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="E54" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A55" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E55" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A56" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="B24" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="B27" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="B28" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>185</v>
-      </c>
-      <c r="B30" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="B31" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="4"/>
-      <c r="D31" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="B32" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="4"/>
-      <c r="D33" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="B34" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C34" s="4"/>
-      <c r="D34" s="10" t="s">
-        <v>138</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>75</v>
-      </c>
-      <c r="C35" s="4"/>
-      <c r="D35" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="4"/>
-      <c r="D36" s="10" t="s">
-        <v>137</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="B37" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="B38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="E38" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="B39" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
-        <v>195</v>
-      </c>
-      <c r="B40" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E40" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="8" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="E42" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="C43" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D43" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="E43" s="7" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A44" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="C44" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D44" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="E44" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A45" s="4" t="s">
-        <v>200</v>
-      </c>
-      <c r="B45" s="8" t="s">
+      <c r="C56" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="7" t="s">
+      <c r="D56" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="E56" s="6" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A46" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="E46" s="7" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="E47" s="7" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A48" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="D48" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="E48" s="8" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A49" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>99</v>
-      </c>
-      <c r="D49" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="E49" s="8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A50" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="C50" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D50" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="E50" s="8" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="D51" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E51" s="8" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A52" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C52" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="E52" s="8" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A53" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C53" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="E53" s="8" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A54" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C54" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="E54" s="8" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="E55" s="8" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A56" s="4" t="s">
-        <v>211</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C56" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="E56" s="8" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A57" s="4" t="s">
-        <v>212</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C57" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>171</v>
-      </c>
+      <c r="F56" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="3">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
